--- a/Arquitectura y diseño de software/PDMaestroDocumentos.xlsx
+++ b/Arquitectura y diseño de software/PDMaestroDocumentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/Arquitectura y diseño de software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B97249-5EC1-4049-B3A7-6E83BB6D3075}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1ABA7F-2F7F-B945-B35A-E8A71DD18060}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16140" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16100" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="167">
   <si>
     <t>METFOR</t>
   </si>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t>PL Decisión</t>
+  </si>
+  <si>
+    <t>Arquitectura de diseño de software</t>
+  </si>
+  <si>
+    <t>PD ArquitecturaDiseñoSoft</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E84" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D82" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
       <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
@@ -3228,7 +3234,7 @@
         <v>162</v>
       </c>
       <c r="F98" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="14" t="s">
         <v>23</v>
@@ -3264,10 +3270,18 @@
       <c r="B100" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
+      <c r="C100" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F100" s="16">
+        <v>1</v>
+      </c>
       <c r="G100" s="14" t="s">
         <v>23</v>
       </c>

--- a/Arquitectura y diseño de software/PDMaestroDocumentos.xlsx
+++ b/Arquitectura y diseño de software/PDMaestroDocumentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/Arquitectura y diseño de software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1ABA7F-2F7F-B945-B35A-E8A71DD18060}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F41B846-7CED-DC41-A1E3-F880863EC936}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16100" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16060" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="183">
   <si>
     <t>METFOR</t>
   </si>
@@ -530,6 +530,54 @@
   </si>
   <si>
     <t>PD ArquitecturaDiseñoSoft</t>
+  </si>
+  <si>
+    <t>CheckList</t>
+  </si>
+  <si>
+    <t>PD CheckList</t>
+  </si>
+  <si>
+    <t>Log de defectos</t>
+  </si>
+  <si>
+    <t>PD Log de defectos</t>
+  </si>
+  <si>
+    <t>PL Bitacora</t>
+  </si>
+  <si>
+    <t>PL Script</t>
+  </si>
+  <si>
+    <t>Maestro Documentos</t>
+  </si>
+  <si>
+    <t>PLMaestroDocumentos</t>
+  </si>
+  <si>
+    <t>Resumen actividades sem</t>
+  </si>
+  <si>
+    <t>PL Resumen actividades Sem</t>
+  </si>
+  <si>
+    <t>PL Presentacion</t>
+  </si>
+  <si>
+    <t>PL Lista de chequeo</t>
+  </si>
+  <si>
+    <t>PL Control de asignaciones</t>
+  </si>
+  <si>
+    <t>PL CheckList</t>
+  </si>
+  <si>
+    <t>PL Acta de Reunion</t>
+  </si>
+  <si>
+    <t>PL ArquitecturaDiseñoSoft</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
-  <dimension ref="B2:J100"/>
+  <dimension ref="B2:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="C86" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3286,6 +3334,312 @@
         <v>23</v>
       </c>
       <c r="H100" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" s="16">
+        <v>1</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F102" s="16">
+        <v>1</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" s="16">
+        <v>1</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F104" s="16">
+        <v>1</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F105" s="16">
+        <v>1</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F106" s="16">
+        <v>1</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" s="16">
+        <v>1</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" s="16">
+        <v>1</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F109" s="16">
+        <v>1</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F110" s="16">
+        <v>1</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F111" s="16">
+        <v>1</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F112" s="16">
+        <v>1</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" s="15" t="s">
         <v>24</v>
       </c>
     </row>
